--- a/03_Pandas/colores.xlsx
+++ b/03_Pandas/colores.xlsx
@@ -37082,7 +37082,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3336">
+  <conditionalFormatting sqref="B2:B3337">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="10"/>
